--- a/src/app/data_to_dict.xlsx
+++ b/src/app/data_to_dict.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Key</t>
   </si>
@@ -21,125 +21,164 @@
     <t>Value</t>
   </si>
   <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎MIUI 12.5 based on Android 11</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎6 GB</t>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>‎Indian</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎Preservatives Free, Vegetarian, Artificial Flavor Free</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎910 Grams</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎1 Litres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingredient Type</t>
+  </si>
+  <si>
+    <t>‎Vegetarian</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>‎FIGARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎Store tightly capped in a cold dry place, away from light.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Package Quantity</t>
+  </si>
+  <si>
+    <t>‎1</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>‎Fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate Age Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎36 Months</t>
+  </si>
+  <si>
+    <t>Taste</t>
+  </si>
+  <si>
+    <t>‎Mild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serving Recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎Please serve it at room temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Information</t>
+  </si>
+  <si>
+    <t>‎Bottle</t>
+  </si>
+  <si>
+    <t>‎Jar</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>‎Figaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item model number</t>
+  </si>
+  <si>
+    <t>‎8410125609477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎1000.0 millilitre</t>
   </si>
   <si>
     <t xml:space="preserve">Product Dimensions</t>
   </si>
   <si>
-    <t xml:space="preserve">‎16.4 x 0.9 x 7.6 cm; 195 Grams</t>
-  </si>
-  <si>
-    <t>Batteries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎1 Lithium Polymer batteries required. (included)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item model number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎Redmi Note 11T 5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectivity technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎WiFi Bluetooth;Infrared;Wi-Fi;USB</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>‎True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎3.5mm Jack, IR Blaster, X-Axis Linear Vibration Motor, Corning gorilla glass 3 protection, Dual Stereo Speakers for immersive audio experience. Hi-Res certified audio, Splash, Water and Dust Resistant- IP53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other display features</t>
-  </si>
-  <si>
-    <t>‎Wireless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device interface - primary</t>
-  </si>
-  <si>
-    <t>‎Touchscreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other camera features</t>
-  </si>
-  <si>
-    <t>‎Front</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audio Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎3.5 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form factor</t>
-  </si>
-  <si>
-    <t>‎Phablet</t>
-  </si>
-  <si>
-    <t>Colour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎Aquamarine Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery Power Rating</t>
-  </si>
-  <si>
-    <t>‎5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whats in the box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎Redmi Note 11T 5G, Power adapter, USB cable, SIM eject tool, Warranty card, User guide, Clear soft case, Screen protector pre-applied on the phone</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>‎Redmi</t>
+    <t xml:space="preserve">‎9.5 x 7 x 18.5 cm; 910 Grams</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎Olive Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serving Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎14 Grams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy (kcal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎30.11 Kilocalories</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎0 Grams</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎14.00 Grams</t>
+  </si>
+  <si>
+    <t>Carbohydrate</t>
+  </si>
+  <si>
+    <t>Sodium</t>
   </si>
   <si>
     <t xml:space="preserve">Country of Origin</t>
   </si>
   <si>
-    <t>‎India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎195 g</t>
+    <t>‎Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎Deoleo India Pvt Mtd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -148,16 +187,27 @@
     </font>
     <font>
       <name val="Liberation Sans"/>
+      <color rgb="FF0F1111"/>
+      <sz val="10.500000"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
       <color indexed="63"/>
       <sz val="10.500000"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,9 +231,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,14 +746,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.421875"/>
-    <col customWidth="1" min="2" max="2" width="41.28125"/>
+    <col customWidth="1" min="1" max="1" width="19.28125"/>
+    <col customWidth="1" min="2" max="2" width="28.8515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -711,166 +764,222 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" t="s">
+    <row r="2" ht="255">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="255">
-      <c r="A3" t="s">
+    <row r="3" ht="38.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" t="s">
+    <row r="4" ht="25.5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="25.5">
-      <c r="A5" t="s">
+    <row r="5" ht="14.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" t="s">
+    <row r="8" ht="76.5">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="76.5">
-      <c r="A9" t="s">
+    <row r="9" ht="25.5">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" t="s">
+    <row r="11" ht="25.5">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="25.5">
-      <c r="A12" t="s">
+    <row r="12" ht="14.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="25.5">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" t="s">
+    <row r="15" ht="25.5">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" ht="51">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" ht="25.5">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" ht="25.5">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" ht="14.25"/>
-    <row r="22" ht="14.25"/>
-    <row r="23" ht="14.25"/>
-    <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25"/>
-    <row r="26" ht="14.25"/>
-    <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="29" ht="14.25"/>
     <row r="30" ht="14.25"/>
     <row r="31" ht="14.25"/>
@@ -881,34 +990,12 @@
     <row r="36" ht="14.25"/>
     <row r="37" ht="14.25"/>
     <row r="38" ht="14.25"/>
-    <row r="39" ht="25.5"/>
+    <row r="39" ht="14.25"/>
     <row r="40" ht="14.25"/>
-    <row r="41" ht="14.25"/>
-    <row r="42" ht="14.25"/>
-    <row r="43" ht="14.25"/>
-    <row r="44" ht="14.25"/>
-    <row r="45" ht="14.25"/>
-    <row r="46" ht="14.25"/>
-    <row r="47" ht="14.25"/>
-    <row r="48" ht="14.25"/>
-    <row r="49" ht="14.25"/>
-    <row r="50" ht="14.25"/>
-    <row r="51" ht="14.25"/>
-    <row r="52" ht="14.25"/>
-    <row r="53" ht="14.25"/>
-    <row r="54" ht="14.25"/>
-    <row r="55" ht="14.25"/>
-    <row r="56" ht="14.25"/>
-    <row r="57" ht="14.25"/>
-    <row r="58" ht="14.25"/>
-    <row r="59" ht="14.25"/>
-    <row r="60" ht="14.25"/>
-    <row r="61" ht="14.25"/>
-    <row r="62" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/app/data_to_dict.xlsx
+++ b/src/app/data_to_dict.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Key</t>
   </si>
@@ -21,164 +21,143 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>‎Indian</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎Preservatives Free, Vegetarian, Artificial Flavor Free</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎910 Grams</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎1 Litres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingredient Type</t>
-  </si>
-  <si>
-    <t>‎Vegetarian</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>‎FIGARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎Store tightly capped in a cold dry place, away from light.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Package Quantity</t>
-  </si>
-  <si>
-    <t>‎1</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>‎Fresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appropriate Age Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎36 Months</t>
-  </si>
-  <si>
-    <t>Taste</t>
-  </si>
-  <si>
-    <t>‎Mild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serving Recommendation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎Please serve it at room temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package Information</t>
-  </si>
-  <si>
-    <t>‎Bottle</t>
-  </si>
-  <si>
-    <t>‎Jar</t>
+    <t>‎BoAt</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>‎Figaro</t>
+    <t xml:space="preserve">‎Imagine Marketing Ltd, info@imaginemarketingindia.com</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>‎8904130868054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎26 x 5 x 1 cm; 54 Grams</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎1 Lithium Ion batteries required. (included)</t>
   </si>
   <si>
     <t xml:space="preserve">Item model number</t>
   </si>
   <si>
-    <t>‎8410125609477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎1000.0 millilitre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎9.5 x 7 x 18.5 cm; 910 Grams</t>
-  </si>
-  <si>
-    <t>Ingredients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎Olive Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serving Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎14 Grams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy (kcal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎30.11 Kilocalories</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎0 Grams</t>
-  </si>
-  <si>
-    <t>Fat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‎14.00 Grams</t>
-  </si>
-  <si>
-    <t>Carbohydrate</t>
-  </si>
-  <si>
-    <t>Sodium</t>
+    <t xml:space="preserve">Operating System</t>
+  </si>
+  <si>
+    <t>‎Smartwatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compatible Devices</t>
+  </si>
+  <si>
+    <t>‎Smartphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎Sleep Monitor, Heart Rate Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounting Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎USB Magnetic Charging Cable, User Manual, Warranty Card, Watch Xtend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Of Items</t>
+  </si>
+  <si>
+    <t>‎4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery Average Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎7 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charging Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎2 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries Included</t>
+  </si>
+  <si>
+    <t>‎Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery Cell Composition</t>
+  </si>
+  <si>
+    <t>‎Lithium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless Type</t>
+  </si>
+  <si>
+    <t>‎Bluetooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes Rechargable Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎Imagine Marketing Ltd</t>
   </si>
   <si>
     <t xml:space="preserve">Country of Origin</t>
   </si>
   <si>
-    <t>‎Spain</t>
+    <t>‎China</t>
   </si>
   <si>
     <t xml:space="preserve">Imported By</t>
   </si>
   <si>
-    <t xml:space="preserve">‎Deoleo India Pvt Mtd</t>
+    <t xml:space="preserve">Item Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‎54 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warranty Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Months Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this product is sold by Amazon, please review the manufacturer’s website for warranty information. If this product is sold by another party, please contact the seller directly for warranty information for this product. You may also be able to find warranty information on the manufacturer’s website.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -193,6 +172,11 @@
     <font>
       <name val="Liberation Sans"/>
       <color indexed="63"/>
+      <sz val="10.500000"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <color indexed="64"/>
       <sz val="10.500000"/>
     </font>
   </fonts>
@@ -231,13 +215,19 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,14 +736,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.28125"/>
-    <col customWidth="1" min="2" max="2" width="28.8515625"/>
+    <col customWidth="1" min="1" max="1" width="25.140625"/>
+    <col customWidth="1" min="2" max="2" width="37.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -764,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="255">
+    <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="38.25">
+    <row r="3" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="25.5">
+    <row r="4" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -809,68 +799,68 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" ht="76.5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" ht="25.5">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" ht="25.5">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" ht="25.5">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" ht="25.5">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -881,117 +871,92 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" ht="25.5">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" ht="102">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25"/>
-    <row r="30" ht="14.25"/>
-    <row r="31" ht="14.25"/>
-    <row r="32" ht="14.25"/>
-    <row r="33" ht="14.25"/>
-    <row r="34" ht="14.25"/>
-    <row r="35" ht="14.25"/>
-    <row r="36" ht="14.25"/>
-    <row r="37" ht="14.25"/>
-    <row r="38" ht="14.25"/>
-    <row r="39" ht="14.25"/>
-    <row r="40" ht="14.25"/>
+      <c r="A27" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
